--- a/pa-temp-fix-system.com/php/export/需要删除来货的.xlsx
+++ b/pa-temp-fix-system.com/php/export/需要删除来货的.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
   <si>
     <t>skuId</t>
   </si>
@@ -44,7 +44,7 @@
     <t>delete3</t>
   </si>
   <si>
-    <t>g25101600ux0791</t>
+    <t>g25102700ux0179</t>
   </si>
   <si>
     <t>local</t>
@@ -59,10 +59,16 @@
     <t>来货brand类型</t>
   </si>
   <si>
-    <t>g25101600ux0790</t>
+    <t>g25102700ux0180</t>
   </si>
   <si>
-    <t>g25101600ux0792</t>
+    <t>g25102700ux0181</t>
+  </si>
+  <si>
+    <t>g25102700ux0182</t>
+  </si>
+  <si>
+    <t>g25102700ux0184</t>
   </si>
 </sst>
 </file>
@@ -1217,13 +1223,13 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="18" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="18" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="26.6" customWidth="1"/>
     <col min="2" max="2" width="16.8166666666667" customWidth="1"/>
@@ -1299,6 +1305,40 @@
         <v>9</v>
       </c>
     </row>
+    <row r="5" ht="19.5" spans="1:5">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" ht="19.5" spans="1:5">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/pa-temp-fix-system.com/php/export/需要删除来货的.xlsx
+++ b/pa-temp-fix-system.com/php/export/需要删除来货的.xlsx
@@ -44,7 +44,7 @@
     <t>delete3</t>
   </si>
   <si>
-    <t>g25102700ux0179</t>
+    <t>g25112600ux0702</t>
   </si>
   <si>
     <t>local</t>
@@ -59,16 +59,16 @@
     <t>来货brand类型</t>
   </si>
   <si>
-    <t>g25102700ux0180</t>
+    <t>g25120200ux0013</t>
   </si>
   <si>
-    <t>g25102700ux0181</t>
+    <t>g25120200ux0012</t>
   </si>
   <si>
-    <t>g25102700ux0182</t>
+    <t>g25120200ux0858</t>
   </si>
   <si>
-    <t>g25102700ux0184</t>
+    <t>g25120200ux0859</t>
   </si>
 </sst>
 </file>
@@ -1226,7 +1226,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="18" outlineLevelRow="5" outlineLevelCol="4"/>
